--- a/ECUS/ECU - Registrar solicitud.xlsx
+++ b/ECUS/ECU - Registrar solicitud.xlsx
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,21 +173,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,13 +190,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD69892"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,18 +219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -249,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -261,17 +254,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -279,6 +272,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD69892"/>
+      <color rgb="FFC1655B"/>
+      <color rgb="FFB74343"/>
+      <color rgb="FFF8ECEC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -555,27 +556,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -585,7 +586,7 @@
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -600,57 +601,57 @@
       </c>
     </row>
     <row r="10" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="3:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -700,67 +701,67 @@
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -785,7 +786,7 @@
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -801,5 +802,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>